--- a/Code/Results/Cases/Case_4_116/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_116/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.011075747705005</v>
+        <v>1.072439420521087</v>
       </c>
       <c r="D2">
-        <v>1.023352080968092</v>
+        <v>1.063407812128526</v>
       </c>
       <c r="E2">
-        <v>1.0278251295702</v>
+        <v>1.085238353133776</v>
       </c>
       <c r="F2">
-        <v>1.032609252030315</v>
+        <v>1.090492257209315</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044459890200954</v>
+        <v>1.045276568057868</v>
       </c>
       <c r="J2">
-        <v>1.032930157373177</v>
+        <v>1.077358960597939</v>
       </c>
       <c r="K2">
-        <v>1.034495395042343</v>
+        <v>1.066126533555585</v>
       </c>
       <c r="L2">
-        <v>1.038909962915031</v>
+        <v>1.08789930005159</v>
       </c>
       <c r="M2">
-        <v>1.043632238897566</v>
+        <v>1.093139672317776</v>
       </c>
       <c r="N2">
-        <v>1.034397036675392</v>
+        <v>1.078888933896788</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.021264813569769</v>
+        <v>1.074347983584873</v>
       </c>
       <c r="D3">
-        <v>1.030884403274747</v>
+        <v>1.064809701476444</v>
       </c>
       <c r="E3">
-        <v>1.037581500524713</v>
+        <v>1.087119297462459</v>
       </c>
       <c r="F3">
-        <v>1.042464143360099</v>
+        <v>1.092395581855102</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047535256262221</v>
+        <v>1.045741837743584</v>
       </c>
       <c r="J3">
-        <v>1.041192099197623</v>
+        <v>1.078921349851871</v>
       </c>
       <c r="K3">
-        <v>1.041136793190102</v>
+        <v>1.067341955390335</v>
       </c>
       <c r="L3">
-        <v>1.047755081628624</v>
+        <v>1.089596848288</v>
       </c>
       <c r="M3">
-        <v>1.052581055981639</v>
+        <v>1.094860546147278</v>
       </c>
       <c r="N3">
-        <v>1.042670711404887</v>
+        <v>1.08045354192267</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.027603198256059</v>
+        <v>1.075579358946556</v>
       </c>
       <c r="D4">
-        <v>1.035571760789766</v>
+        <v>1.065713497702489</v>
       </c>
       <c r="E4">
-        <v>1.043657193933681</v>
+        <v>1.088333142776576</v>
       </c>
       <c r="F4">
-        <v>1.048601757036624</v>
+        <v>1.093623915174329</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049433426159576</v>
+        <v>1.046039999091029</v>
       </c>
       <c r="J4">
-        <v>1.04632623030497</v>
+        <v>1.0799284569511</v>
       </c>
       <c r="K4">
-        <v>1.045259015651686</v>
+        <v>1.068124571673167</v>
       </c>
       <c r="L4">
-        <v>1.053255790214662</v>
+        <v>1.090691588875891</v>
       </c>
       <c r="M4">
-        <v>1.058146960808439</v>
+        <v>1.095970387931743</v>
       </c>
       <c r="N4">
-        <v>1.047812133567299</v>
+        <v>1.081462079229496</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.030211423968934</v>
+        <v>1.07609618877062</v>
       </c>
       <c r="D5">
-        <v>1.037500803077472</v>
+        <v>1.066092672348484</v>
       </c>
       <c r="E5">
-        <v>1.046158769196961</v>
+        <v>1.08884268346864</v>
       </c>
       <c r="F5">
-        <v>1.051128959173814</v>
+        <v>1.09413954835116</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050210834560735</v>
+        <v>1.046164657605474</v>
       </c>
       <c r="J5">
-        <v>1.048437513678889</v>
+        <v>1.080350936156249</v>
       </c>
       <c r="K5">
-        <v>1.046952954265566</v>
+        <v>1.068452676325648</v>
       </c>
       <c r="L5">
-        <v>1.055518823092891</v>
+        <v>1.091150952518573</v>
       </c>
       <c r="M5">
-        <v>1.060436980978103</v>
+        <v>1.096436102210427</v>
       </c>
       <c r="N5">
-        <v>1.049926415205778</v>
+        <v>1.081885158403575</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.030646169243367</v>
+        <v>1.076182918060409</v>
       </c>
       <c r="D6">
-        <v>1.037822347507104</v>
+        <v>1.066156292014724</v>
       </c>
       <c r="E6">
-        <v>1.046575819875892</v>
+        <v>1.088928193568012</v>
       </c>
       <c r="F6">
-        <v>1.051550289909049</v>
+        <v>1.094226081512171</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050340195492494</v>
+        <v>1.04618554810432</v>
       </c>
       <c r="J6">
-        <v>1.048789342792944</v>
+        <v>1.08042181946071</v>
       </c>
       <c r="K6">
-        <v>1.047235162663279</v>
+        <v>1.068507713708391</v>
       </c>
       <c r="L6">
-        <v>1.055895999183009</v>
+        <v>1.091228031452779</v>
       </c>
       <c r="M6">
-        <v>1.060818664587793</v>
+        <v>1.096514247572383</v>
       </c>
       <c r="N6">
-        <v>1.050278743957529</v>
+        <v>1.081956142370459</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.027638265640991</v>
+        <v>1.075586268127305</v>
       </c>
       <c r="D7">
-        <v>1.035597696019464</v>
+        <v>1.065718567304151</v>
       </c>
       <c r="E7">
-        <v>1.043690821812438</v>
+        <v>1.088339954244831</v>
       </c>
       <c r="F7">
-        <v>1.048635728890426</v>
+        <v>1.093630808043624</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049443893077737</v>
+        <v>1.046041667481968</v>
       </c>
       <c r="J7">
-        <v>1.046354621989442</v>
+        <v>1.07993410568705</v>
       </c>
       <c r="K7">
-        <v>1.045281799969855</v>
+        <v>1.068128959370978</v>
       </c>
       <c r="L7">
-        <v>1.053286218582933</v>
+        <v>1.090697730291872</v>
       </c>
       <c r="M7">
-        <v>1.058177751394435</v>
+        <v>1.09597661419676</v>
       </c>
       <c r="N7">
-        <v>1.047840565571219</v>
+        <v>1.0814677359873</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.014574811720457</v>
+        <v>1.073085184116401</v>
       </c>
       <c r="D8">
-        <v>1.025938302394437</v>
+        <v>1.063882282782478</v>
       </c>
       <c r="E8">
-        <v>1.031174153319852</v>
+        <v>1.085874711512616</v>
       </c>
       <c r="F8">
-        <v>1.035991971255681</v>
+        <v>1.091136177898669</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045519124357357</v>
+        <v>1.04543441180696</v>
       </c>
       <c r="J8">
-        <v>1.035768514741948</v>
+        <v>1.077887787093137</v>
       </c>
       <c r="K8">
-        <v>1.036778021645252</v>
+        <v>1.066538094482336</v>
       </c>
       <c r="L8">
-        <v>1.041947780195976</v>
+        <v>1.088473768224227</v>
       </c>
       <c r="M8">
-        <v>1.046705517676381</v>
+        <v>1.093722021942489</v>
       </c>
       <c r="N8">
-        <v>1.037239424837191</v>
+        <v>1.079418511386267</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9893683244721583</v>
+        <v>1.068649551247858</v>
       </c>
       <c r="D9">
-        <v>1.00732456702181</v>
+        <v>1.060620477985679</v>
       </c>
       <c r="E9">
-        <v>1.007082486515867</v>
+        <v>1.081504900619634</v>
       </c>
       <c r="F9">
-        <v>1.011660618317901</v>
+        <v>1.086714623652229</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.037827360214626</v>
+        <v>1.044341893043063</v>
       </c>
       <c r="J9">
-        <v>1.01530218261067</v>
+        <v>1.074251591221536</v>
       </c>
       <c r="K9">
-        <v>1.020299915591245</v>
+        <v>1.063704778317551</v>
       </c>
       <c r="L9">
-        <v>1.02006169100492</v>
+        <v>1.084525847327366</v>
       </c>
       <c r="M9">
-        <v>1.024567301187113</v>
+        <v>1.08972017960147</v>
       </c>
       <c r="N9">
-        <v>1.016744028166765</v>
+        <v>1.075777151699451</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9706947888466412</v>
+        <v>1.065672116885626</v>
       </c>
       <c r="D10">
-        <v>0.9935699136054845</v>
+        <v>1.058427576749098</v>
       </c>
       <c r="E10">
-        <v>0.9892863583874953</v>
+        <v>1.078573212894531</v>
       </c>
       <c r="F10">
-        <v>0.9936912469613074</v>
+        <v>1.083748456259397</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032055924277496</v>
+        <v>1.043598093477736</v>
       </c>
       <c r="J10">
-        <v>1.000121363338751</v>
+        <v>1.071806042887199</v>
       </c>
       <c r="K10">
-        <v>1.008056243949993</v>
+        <v>1.061794912566939</v>
       </c>
       <c r="L10">
-        <v>1.003851783282818</v>
+        <v>1.081873294127701</v>
       </c>
       <c r="M10">
-        <v>1.008175349857865</v>
+        <v>1.087031702740644</v>
       </c>
       <c r="N10">
-        <v>1.001541650390216</v>
+        <v>1.07332813040597</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9620502675716232</v>
+        <v>1.064377749391772</v>
       </c>
       <c r="D11">
-        <v>0.9872158496675437</v>
+        <v>1.057473477639326</v>
       </c>
       <c r="E11">
-        <v>0.9810632386555952</v>
+        <v>1.077299113001285</v>
       </c>
       <c r="F11">
-        <v>0.9853891068258478</v>
+        <v>1.082459427451707</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029369104974684</v>
+        <v>1.043272274753587</v>
       </c>
       <c r="J11">
-        <v>0.993091691568699</v>
+        <v>1.070741782161458</v>
       </c>
       <c r="K11">
-        <v>1.002382951626583</v>
+        <v>1.060962759222648</v>
       </c>
       <c r="L11">
-        <v>0.9963513341277316</v>
+        <v>1.08071957584303</v>
       </c>
       <c r="M11">
-        <v>1.000591925439942</v>
+        <v>1.085862432212702</v>
       </c>
       <c r="N11">
-        <v>0.9945019956799359</v>
+        <v>1.072262358307926</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9587428945851464</v>
+        <v>1.063896170398072</v>
       </c>
       <c r="D12">
-        <v>0.9847873382897959</v>
+        <v>1.057118381154918</v>
       </c>
       <c r="E12">
-        <v>0.9779196908144827</v>
+        <v>1.076825132667818</v>
       </c>
       <c r="F12">
-        <v>0.9822155192098351</v>
+        <v>1.081979901781231</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028339120837764</v>
+        <v>1.043150681016501</v>
       </c>
       <c r="J12">
-        <v>0.9904021134354971</v>
+        <v>1.070345648683402</v>
       </c>
       <c r="K12">
-        <v>1.000211909922978</v>
+        <v>1.060652868019901</v>
       </c>
       <c r="L12">
-        <v>0.9934825035303407</v>
+        <v>1.080290239156177</v>
       </c>
       <c r="M12">
-        <v>0.9976915618558897</v>
+        <v>1.085427318948544</v>
       </c>
       <c r="N12">
-        <v>0.9918085980372857</v>
+        <v>1.071865662274894</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9594569304734401</v>
+        <v>1.063999507016831</v>
       </c>
       <c r="D13">
-        <v>0.9853115109366319</v>
+        <v>1.057194582576054</v>
       </c>
       <c r="E13">
-        <v>0.9785982354762355</v>
+        <v>1.076926836140897</v>
       </c>
       <c r="F13">
-        <v>0.982900540222003</v>
+        <v>1.08208279475489</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028561572579734</v>
+        <v>1.043176789199546</v>
       </c>
       <c r="J13">
-        <v>0.9909827694129195</v>
+        <v>1.070430658075354</v>
       </c>
       <c r="K13">
-        <v>1.000680634924601</v>
+        <v>1.060719376849042</v>
       </c>
       <c r="L13">
-        <v>0.9941018193096792</v>
+        <v>1.08038236962424</v>
       </c>
       <c r="M13">
-        <v>0.9983176754258516</v>
+        <v>1.085520688505782</v>
       </c>
       <c r="N13">
-        <v>0.9923900786127984</v>
+        <v>1.071950792389933</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9617789277802548</v>
+        <v>1.064337958245846</v>
       </c>
       <c r="D14">
-        <v>0.9870165577872843</v>
+        <v>1.057444139663134</v>
       </c>
       <c r="E14">
-        <v>0.9808052847451486</v>
+        <v>1.077259948519213</v>
       </c>
       <c r="F14">
-        <v>0.9851286844171405</v>
+        <v>1.082419804593158</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029284643264984</v>
+        <v>1.043262235449025</v>
       </c>
       <c r="J14">
-        <v>0.9928710353833892</v>
+        <v>1.070709054482395</v>
       </c>
       <c r="K14">
-        <v>1.002204844382676</v>
+        <v>1.060937159776229</v>
       </c>
       <c r="L14">
-        <v>0.9961159542810022</v>
+        <v>1.080684103067409</v>
       </c>
       <c r="M14">
-        <v>1.000353954175698</v>
+        <v>1.085826481940246</v>
       </c>
       <c r="N14">
-        <v>0.9942810261375333</v>
+        <v>1.072229584151805</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9631963920310997</v>
+        <v>1.064546383371159</v>
       </c>
       <c r="D15">
-        <v>0.9880577537622653</v>
+        <v>1.057597806548083</v>
       </c>
       <c r="E15">
-        <v>0.9821529289788986</v>
+        <v>1.077465093569749</v>
       </c>
       <c r="F15">
-        <v>0.9864892318729994</v>
+        <v>1.082627350980887</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029725786749812</v>
+        <v>1.043314805942037</v>
       </c>
       <c r="J15">
-        <v>0.9940237312056777</v>
+        <v>1.070880474479508</v>
       </c>
       <c r="K15">
-        <v>1.003135250778766</v>
+        <v>1.061071237547462</v>
       </c>
       <c r="L15">
-        <v>0.9973456008736161</v>
+        <v>1.080869905098553</v>
       </c>
       <c r="M15">
-        <v>1.001597146932007</v>
+        <v>1.086014785488228</v>
       </c>
       <c r="N15">
-        <v>0.9954353589201053</v>
+        <v>1.072401247584976</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9712557205529031</v>
+        <v>1.065757909885154</v>
       </c>
       <c r="D16">
-        <v>0.993982536329679</v>
+        <v>1.05849079970029</v>
       </c>
       <c r="E16">
-        <v>0.989820282402322</v>
+        <v>1.078657670590867</v>
       </c>
       <c r="F16">
-        <v>0.9942303239307716</v>
+        <v>1.083833904740728</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03222997964888</v>
+        <v>1.043619637421845</v>
       </c>
       <c r="J16">
-        <v>1.000577488650473</v>
+        <v>1.071876560528213</v>
       </c>
       <c r="K16">
-        <v>1.008424294575334</v>
+        <v>1.061850029594882</v>
       </c>
       <c r="L16">
-        <v>1.004338573566849</v>
+        <v>1.081949752391809</v>
       </c>
       <c r="M16">
-        <v>1.008667552323355</v>
+        <v>1.087109193198847</v>
       </c>
       <c r="N16">
-        <v>1.001998423452199</v>
+        <v>1.073398748190123</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9761535280918244</v>
+        <v>1.066516481008357</v>
       </c>
       <c r="D17">
-        <v>0.9975869169991267</v>
+        <v>1.059049718547169</v>
       </c>
       <c r="E17">
-        <v>0.9944839975546264</v>
+        <v>1.079404479076762</v>
       </c>
       <c r="F17">
-        <v>0.9989391653027061</v>
+        <v>1.084589480577689</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033748101575743</v>
+        <v>1.043809841657059</v>
       </c>
       <c r="J17">
-        <v>1.004559972532083</v>
+        <v>1.072499940015983</v>
       </c>
       <c r="K17">
-        <v>1.011637389004908</v>
+        <v>1.062337150305319</v>
       </c>
       <c r="L17">
-        <v>1.008589438489638</v>
+        <v>1.0826257195702</v>
       </c>
       <c r="M17">
-        <v>1.012965820395586</v>
+        <v>1.087794294372474</v>
       </c>
       <c r="N17">
-        <v>1.005986562917718</v>
+        <v>1.074023012948269</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.978957391288922</v>
+        <v>1.066958450476561</v>
       </c>
       <c r="D18">
-        <v>0.9996515280276465</v>
+        <v>1.059375287777098</v>
       </c>
       <c r="E18">
-        <v>0.9971552371169802</v>
+        <v>1.079839631788895</v>
       </c>
       <c r="F18">
-        <v>1.001636346450117</v>
+        <v>1.085029747250077</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034615773224295</v>
+        <v>1.043920423359342</v>
       </c>
       <c r="J18">
-        <v>1.006839630492251</v>
+        <v>1.072863034581827</v>
       </c>
       <c r="K18">
-        <v>1.01347627926393</v>
+        <v>1.062620781933529</v>
       </c>
       <c r="L18">
-        <v>1.011023256213791</v>
+        <v>1.083019504802257</v>
       </c>
       <c r="M18">
-        <v>1.015426894076129</v>
+        <v>1.088193407608206</v>
       </c>
       <c r="N18">
-        <v>1.00826945825367</v>
+        <v>1.074386623150043</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9799047925035047</v>
+        <v>1.067109067880993</v>
       </c>
       <c r="D19">
-        <v>1.000349331921911</v>
+        <v>1.059486224566999</v>
       </c>
       <c r="E19">
-        <v>0.9980580532592713</v>
+        <v>1.079987932308814</v>
       </c>
       <c r="F19">
-        <v>1.002547945940172</v>
+        <v>1.085179791524175</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034908705869977</v>
+        <v>1.043958067804043</v>
       </c>
       <c r="J19">
-        <v>1.007609865303614</v>
+        <v>1.072986754180422</v>
       </c>
       <c r="K19">
-        <v>1.014097527096487</v>
+        <v>1.062717409056431</v>
       </c>
       <c r="L19">
-        <v>1.011845667718502</v>
+        <v>1.083153692072998</v>
       </c>
       <c r="M19">
-        <v>1.016258534836856</v>
+        <v>1.088329411647909</v>
       </c>
       <c r="N19">
-        <v>1.009040786886812</v>
+        <v>1.07451051844466</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9756335977305901</v>
+        <v>1.066435144594636</v>
       </c>
       <c r="D20">
-        <v>0.9972041629092846</v>
+        <v>1.058989797339612</v>
       </c>
       <c r="E20">
-        <v>0.9939887708615326</v>
+        <v>1.079324400101642</v>
       </c>
       <c r="F20">
-        <v>0.9984391368455054</v>
+        <v>1.084508460938739</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033587089766637</v>
+        <v>1.043789471954599</v>
       </c>
       <c r="J20">
-        <v>1.004137228922838</v>
+        <v>1.072433110414478</v>
       </c>
       <c r="K20">
-        <v>1.011296352539748</v>
+        <v>1.062284938450606</v>
       </c>
       <c r="L20">
-        <v>1.00813815050299</v>
+        <v>1.08255324604179</v>
       </c>
       <c r="M20">
-        <v>1.01250948778805</v>
+        <v>1.087720840823524</v>
       </c>
       <c r="N20">
-        <v>1.005563218964058</v>
+        <v>1.073956088441063</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9610979327885194</v>
+        <v>1.064238314889071</v>
       </c>
       <c r="D21">
-        <v>0.9865164276998644</v>
+        <v>1.057370670824057</v>
       </c>
       <c r="E21">
-        <v>0.9801579277809185</v>
+        <v>1.077161875366902</v>
       </c>
       <c r="F21">
-        <v>0.9844751352990895</v>
+        <v>1.082320583739883</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029072634143614</v>
+        <v>1.043237089453795</v>
       </c>
       <c r="J21">
-        <v>0.9923172438626087</v>
+        <v>1.070627096468403</v>
       </c>
       <c r="K21">
-        <v>1.001757833788931</v>
+        <v>1.060873050134584</v>
       </c>
       <c r="L21">
-        <v>0.9955252240172127</v>
+        <v>1.080595272189468</v>
       </c>
       <c r="M21">
-        <v>0.9997567235881005</v>
+        <v>1.085736455491842</v>
       </c>
       <c r="N21">
-        <v>0.9937264481692722</v>
+        <v>1.072147509748032</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9513926097441536</v>
+        <v>1.062852478980626</v>
       </c>
       <c r="D22">
-        <v>0.9793956216229489</v>
+        <v>1.056348594056532</v>
       </c>
       <c r="E22">
-        <v>0.970938710473476</v>
+        <v>1.075798016211461</v>
       </c>
       <c r="F22">
-        <v>0.975168158272549</v>
+        <v>1.080940783945457</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02604667657489</v>
+        <v>1.042886482382643</v>
       </c>
       <c r="J22">
-        <v>0.9844250751856701</v>
+        <v>1.069486831397473</v>
       </c>
       <c r="K22">
-        <v>0.9953866120180285</v>
+        <v>1.059980747337196</v>
       </c>
       <c r="L22">
-        <v>0.9871087293792289</v>
+        <v>1.079359609700511</v>
       </c>
       <c r="M22">
-        <v>0.9912481280561177</v>
+        <v>1.084484188208067</v>
       </c>
       <c r="N22">
-        <v>0.9858230717075681</v>
+        <v>1.071005625369912</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C23">
-        <v>0.9565961796694766</v>
+        <v>1.063587581196538</v>
       </c>
       <c r="D23">
-        <v>0.9832118570912897</v>
+        <v>1.056890807506156</v>
       </c>
       <c r="E23">
-        <v>0.9758800870194606</v>
+        <v>1.076521428999102</v>
       </c>
       <c r="F23">
-        <v>0.980156474360148</v>
+        <v>1.081672647294332</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027670056814971</v>
+        <v>1.043072661193883</v>
       </c>
       <c r="J23">
-        <v>0.988656415944145</v>
+        <v>1.07009176472871</v>
       </c>
       <c r="K23">
-        <v>0.9988026748500596</v>
+        <v>1.060454214598125</v>
       </c>
       <c r="L23">
-        <v>0.9916207060654983</v>
+        <v>1.080015101614563</v>
       </c>
       <c r="M23">
-        <v>0.9958093600343838</v>
+        <v>1.085148482604204</v>
       </c>
       <c r="N23">
-        <v>0.9900604214552614</v>
+        <v>1.071611417775866</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9758686945809717</v>
+        <v>1.066471898539293</v>
       </c>
       <c r="D24">
-        <v>0.9973772290818028</v>
+        <v>1.059016874509191</v>
       </c>
       <c r="E24">
-        <v>0.9942126931565483</v>
+        <v>1.079360585727449</v>
       </c>
       <c r="F24">
-        <v>0.9986652300182963</v>
+        <v>1.084545071609688</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033659898874038</v>
+        <v>1.043798677262318</v>
       </c>
       <c r="J24">
-        <v>1.004328381514536</v>
+        <v>1.07246330941678</v>
       </c>
       <c r="K24">
-        <v>1.011450560602484</v>
+        <v>1.062308532277658</v>
       </c>
       <c r="L24">
-        <v>1.008342208388127</v>
+        <v>1.082585995238684</v>
       </c>
       <c r="M24">
-        <v>1.012715826329712</v>
+        <v>1.087754032848587</v>
       </c>
       <c r="N24">
-        <v>1.005754643014362</v>
+        <v>1.073986330329413</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9961808454423193</v>
+        <v>1.069799762247797</v>
       </c>
       <c r="D25">
-        <v>1.012350851674649</v>
+        <v>1.061466905969302</v>
       </c>
       <c r="E25">
-        <v>1.013585901647289</v>
+        <v>1.082637771723748</v>
       </c>
       <c r="F25">
-        <v>1.01822813076652</v>
+        <v>1.08786086798685</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039919107174038</v>
+        <v>1.044627032830209</v>
       </c>
       <c r="J25">
-        <v>1.020837426523618</v>
+        <v>1.075195333623935</v>
       </c>
       <c r="K25">
-        <v>1.024760415041431</v>
+        <v>1.064440897630089</v>
       </c>
       <c r="L25">
-        <v>1.025976912297394</v>
+        <v>1.085550030156053</v>
       </c>
       <c r="M25">
-        <v>1.030549918236929</v>
+        <v>1.090758297335426</v>
       </c>
       <c r="N25">
-        <v>1.022287132760971</v>
+        <v>1.076722234324309</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_116/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_116/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.072439420521087</v>
+        <v>1.011075747705007</v>
       </c>
       <c r="D2">
-        <v>1.063407812128526</v>
+        <v>1.023352080968094</v>
       </c>
       <c r="E2">
-        <v>1.085238353133776</v>
+        <v>1.027825129570202</v>
       </c>
       <c r="F2">
-        <v>1.090492257209315</v>
+        <v>1.032609252030317</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045276568057868</v>
+        <v>1.044459890200954</v>
       </c>
       <c r="J2">
-        <v>1.077358960597939</v>
+        <v>1.032930157373179</v>
       </c>
       <c r="K2">
-        <v>1.066126533555585</v>
+        <v>1.034495395042344</v>
       </c>
       <c r="L2">
-        <v>1.08789930005159</v>
+        <v>1.038909962915033</v>
       </c>
       <c r="M2">
-        <v>1.093139672317776</v>
+        <v>1.043632238897569</v>
       </c>
       <c r="N2">
-        <v>1.078888933896788</v>
+        <v>1.034397036675395</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.074347983584873</v>
+        <v>1.021264813569772</v>
       </c>
       <c r="D3">
-        <v>1.064809701476444</v>
+        <v>1.030884403274749</v>
       </c>
       <c r="E3">
-        <v>1.087119297462459</v>
+        <v>1.037581500524716</v>
       </c>
       <c r="F3">
-        <v>1.092395581855102</v>
+        <v>1.042464143360102</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045741837743584</v>
+        <v>1.047535256262222</v>
       </c>
       <c r="J3">
-        <v>1.078921349851871</v>
+        <v>1.041192099197626</v>
       </c>
       <c r="K3">
-        <v>1.067341955390335</v>
+        <v>1.041136793190104</v>
       </c>
       <c r="L3">
-        <v>1.089596848288</v>
+        <v>1.047755081628627</v>
       </c>
       <c r="M3">
-        <v>1.094860546147278</v>
+        <v>1.052581055981642</v>
       </c>
       <c r="N3">
-        <v>1.08045354192267</v>
+        <v>1.042670711404889</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.075579358946556</v>
+        <v>1.027603198256058</v>
       </c>
       <c r="D4">
-        <v>1.065713497702489</v>
+        <v>1.035571760789765</v>
       </c>
       <c r="E4">
-        <v>1.088333142776576</v>
+        <v>1.04365719393368</v>
       </c>
       <c r="F4">
-        <v>1.093623915174329</v>
+        <v>1.048601757036623</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046039999091029</v>
+        <v>1.049433426159576</v>
       </c>
       <c r="J4">
-        <v>1.0799284569511</v>
+        <v>1.046326230304969</v>
       </c>
       <c r="K4">
-        <v>1.068124571673167</v>
+        <v>1.045259015651685</v>
       </c>
       <c r="L4">
-        <v>1.090691588875891</v>
+        <v>1.053255790214662</v>
       </c>
       <c r="M4">
-        <v>1.095970387931743</v>
+        <v>1.058146960808438</v>
       </c>
       <c r="N4">
-        <v>1.081462079229496</v>
+        <v>1.047812133567298</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.07609618877062</v>
+        <v>1.030211423968932</v>
       </c>
       <c r="D5">
-        <v>1.066092672348484</v>
+        <v>1.03750080307747</v>
       </c>
       <c r="E5">
-        <v>1.08884268346864</v>
+        <v>1.046158769196959</v>
       </c>
       <c r="F5">
-        <v>1.09413954835116</v>
+        <v>1.051128959173812</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046164657605474</v>
+        <v>1.050210834560735</v>
       </c>
       <c r="J5">
-        <v>1.080350936156249</v>
+        <v>1.048437513678887</v>
       </c>
       <c r="K5">
-        <v>1.068452676325648</v>
+        <v>1.046952954265564</v>
       </c>
       <c r="L5">
-        <v>1.091150952518573</v>
+        <v>1.055518823092889</v>
       </c>
       <c r="M5">
-        <v>1.096436102210427</v>
+        <v>1.060436980978101</v>
       </c>
       <c r="N5">
-        <v>1.081885158403575</v>
+        <v>1.049926415205775</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.076182918060409</v>
+        <v>1.030646169243369</v>
       </c>
       <c r="D6">
-        <v>1.066156292014724</v>
+        <v>1.037822347507106</v>
       </c>
       <c r="E6">
-        <v>1.088928193568012</v>
+        <v>1.046575819875894</v>
       </c>
       <c r="F6">
-        <v>1.094226081512171</v>
+        <v>1.051550289909052</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04618554810432</v>
+        <v>1.050340195492495</v>
       </c>
       <c r="J6">
-        <v>1.08042181946071</v>
+        <v>1.048789342792946</v>
       </c>
       <c r="K6">
-        <v>1.068507713708391</v>
+        <v>1.04723516266328</v>
       </c>
       <c r="L6">
-        <v>1.091228031452779</v>
+        <v>1.055895999183012</v>
       </c>
       <c r="M6">
-        <v>1.096514247572383</v>
+        <v>1.060818664587795</v>
       </c>
       <c r="N6">
-        <v>1.081956142370459</v>
+        <v>1.050278743957531</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.075586268127305</v>
+        <v>1.027638265640989</v>
       </c>
       <c r="D7">
-        <v>1.065718567304151</v>
+        <v>1.035597696019463</v>
       </c>
       <c r="E7">
-        <v>1.088339954244831</v>
+        <v>1.043690821812436</v>
       </c>
       <c r="F7">
-        <v>1.093630808043624</v>
+        <v>1.048635728890424</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046041667481968</v>
+        <v>1.049443893077736</v>
       </c>
       <c r="J7">
-        <v>1.07993410568705</v>
+        <v>1.04635462198944</v>
       </c>
       <c r="K7">
-        <v>1.068128959370978</v>
+        <v>1.045281799969854</v>
       </c>
       <c r="L7">
-        <v>1.090697730291872</v>
+        <v>1.053286218582931</v>
       </c>
       <c r="M7">
-        <v>1.09597661419676</v>
+        <v>1.058177751394434</v>
       </c>
       <c r="N7">
-        <v>1.0814677359873</v>
+        <v>1.047840565571218</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.073085184116401</v>
+        <v>1.014574811720457</v>
       </c>
       <c r="D8">
-        <v>1.063882282782478</v>
+        <v>1.025938302394437</v>
       </c>
       <c r="E8">
-        <v>1.085874711512616</v>
+        <v>1.031174153319851</v>
       </c>
       <c r="F8">
-        <v>1.091136177898669</v>
+        <v>1.035991971255681</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04543441180696</v>
+        <v>1.045519124357357</v>
       </c>
       <c r="J8">
-        <v>1.077887787093137</v>
+        <v>1.035768514741948</v>
       </c>
       <c r="K8">
-        <v>1.066538094482336</v>
+        <v>1.036778021645252</v>
       </c>
       <c r="L8">
-        <v>1.088473768224227</v>
+        <v>1.041947780195975</v>
       </c>
       <c r="M8">
-        <v>1.093722021942489</v>
+        <v>1.046705517676381</v>
       </c>
       <c r="N8">
-        <v>1.079418511386267</v>
+        <v>1.037239424837191</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.068649551247858</v>
+        <v>0.9893683244721588</v>
       </c>
       <c r="D9">
-        <v>1.060620477985679</v>
+        <v>1.007324567021811</v>
       </c>
       <c r="E9">
-        <v>1.081504900619634</v>
+        <v>1.007082486515868</v>
       </c>
       <c r="F9">
-        <v>1.086714623652229</v>
+        <v>1.011660618317902</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.044341893043063</v>
+        <v>1.037827360214626</v>
       </c>
       <c r="J9">
-        <v>1.074251591221536</v>
+        <v>1.015302182610671</v>
       </c>
       <c r="K9">
-        <v>1.063704778317551</v>
+        <v>1.020299915591246</v>
       </c>
       <c r="L9">
-        <v>1.084525847327366</v>
+        <v>1.020061691004921</v>
       </c>
       <c r="M9">
-        <v>1.08972017960147</v>
+        <v>1.024567301187113</v>
       </c>
       <c r="N9">
-        <v>1.075777151699451</v>
+        <v>1.016744028166766</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.065672116885626</v>
+        <v>0.9706947888466391</v>
       </c>
       <c r="D10">
-        <v>1.058427576749098</v>
+        <v>0.9935699136054832</v>
       </c>
       <c r="E10">
-        <v>1.078573212894531</v>
+        <v>0.989286358387493</v>
       </c>
       <c r="F10">
-        <v>1.083748456259397</v>
+        <v>0.9936912469613054</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043598093477736</v>
+        <v>1.032055924277495</v>
       </c>
       <c r="J10">
-        <v>1.071806042887199</v>
+        <v>1.000121363338749</v>
       </c>
       <c r="K10">
-        <v>1.061794912566939</v>
+        <v>1.008056243949992</v>
       </c>
       <c r="L10">
-        <v>1.081873294127701</v>
+        <v>1.003851783282816</v>
       </c>
       <c r="M10">
-        <v>1.087031702740644</v>
+        <v>1.008175349857863</v>
       </c>
       <c r="N10">
-        <v>1.07332813040597</v>
+        <v>1.001541650390214</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.064377749391772</v>
+        <v>0.9620502675716284</v>
       </c>
       <c r="D11">
-        <v>1.057473477639326</v>
+        <v>0.9872158496675477</v>
       </c>
       <c r="E11">
-        <v>1.077299113001285</v>
+        <v>0.9810632386556005</v>
       </c>
       <c r="F11">
-        <v>1.082459427451707</v>
+        <v>0.985389106825853</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043272274753587</v>
+        <v>1.029369104974686</v>
       </c>
       <c r="J11">
-        <v>1.070741782161458</v>
+        <v>0.9930916915687038</v>
       </c>
       <c r="K11">
-        <v>1.060962759222648</v>
+        <v>1.002382951626587</v>
       </c>
       <c r="L11">
-        <v>1.08071957584303</v>
+        <v>0.9963513341277369</v>
       </c>
       <c r="M11">
-        <v>1.085862432212702</v>
+        <v>1.000591925439947</v>
       </c>
       <c r="N11">
-        <v>1.072262358307926</v>
+        <v>0.9945019956799406</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.063896170398072</v>
+        <v>0.9587428945851462</v>
       </c>
       <c r="D12">
-        <v>1.057118381154918</v>
+        <v>0.9847873382897957</v>
       </c>
       <c r="E12">
-        <v>1.076825132667818</v>
+        <v>0.977919690814483</v>
       </c>
       <c r="F12">
-        <v>1.081979901781231</v>
+        <v>0.9822155192098351</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043150681016501</v>
+        <v>1.028339120837764</v>
       </c>
       <c r="J12">
-        <v>1.070345648683402</v>
+        <v>0.9904021134354969</v>
       </c>
       <c r="K12">
-        <v>1.060652868019901</v>
+        <v>1.000211909922978</v>
       </c>
       <c r="L12">
-        <v>1.080290239156177</v>
+        <v>0.993482503530341</v>
       </c>
       <c r="M12">
-        <v>1.085427318948544</v>
+        <v>0.9976915618558897</v>
       </c>
       <c r="N12">
-        <v>1.071865662274894</v>
+        <v>0.9918085980372855</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.063999507016831</v>
+        <v>0.9594569304734392</v>
       </c>
       <c r="D13">
-        <v>1.057194582576054</v>
+        <v>0.9853115109366315</v>
       </c>
       <c r="E13">
-        <v>1.076926836140897</v>
+        <v>0.9785982354762346</v>
       </c>
       <c r="F13">
-        <v>1.08208279475489</v>
+        <v>0.9829005402220019</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.043176789199546</v>
+        <v>1.028561572579734</v>
       </c>
       <c r="J13">
-        <v>1.070430658075354</v>
+        <v>0.9909827694129187</v>
       </c>
       <c r="K13">
-        <v>1.060719376849042</v>
+        <v>1.000680634924601</v>
       </c>
       <c r="L13">
-        <v>1.08038236962424</v>
+        <v>0.9941018193096784</v>
       </c>
       <c r="M13">
-        <v>1.085520688505782</v>
+        <v>0.9983176754258506</v>
       </c>
       <c r="N13">
-        <v>1.071950792389933</v>
+        <v>0.9923900786127976</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.064337958245846</v>
+        <v>0.9617789277802549</v>
       </c>
       <c r="D14">
-        <v>1.057444139663134</v>
+        <v>0.9870165577872843</v>
       </c>
       <c r="E14">
-        <v>1.077259948519213</v>
+        <v>0.9808052847451487</v>
       </c>
       <c r="F14">
-        <v>1.082419804593158</v>
+        <v>0.9851286844171406</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043262235449025</v>
+        <v>1.029284643264984</v>
       </c>
       <c r="J14">
-        <v>1.070709054482395</v>
+        <v>0.9928710353833892</v>
       </c>
       <c r="K14">
-        <v>1.060937159776229</v>
+        <v>1.002204844382676</v>
       </c>
       <c r="L14">
-        <v>1.080684103067409</v>
+        <v>0.9961159542810022</v>
       </c>
       <c r="M14">
-        <v>1.085826481940246</v>
+        <v>1.000353954175698</v>
       </c>
       <c r="N14">
-        <v>1.072229584151805</v>
+        <v>0.9942810261375331</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.064546383371159</v>
+        <v>0.9631963920311009</v>
       </c>
       <c r="D15">
-        <v>1.057597806548083</v>
+        <v>0.9880577537622661</v>
       </c>
       <c r="E15">
-        <v>1.077465093569749</v>
+        <v>0.9821529289788997</v>
       </c>
       <c r="F15">
-        <v>1.082627350980887</v>
+        <v>0.9864892318730004</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043314805942037</v>
+        <v>1.029725786749812</v>
       </c>
       <c r="J15">
-        <v>1.070880474479508</v>
+        <v>0.9940237312056788</v>
       </c>
       <c r="K15">
-        <v>1.061071237547462</v>
+        <v>1.003135250778767</v>
       </c>
       <c r="L15">
-        <v>1.080869905098553</v>
+        <v>0.9973456008736173</v>
       </c>
       <c r="M15">
-        <v>1.086014785488228</v>
+        <v>1.001597146932008</v>
       </c>
       <c r="N15">
-        <v>1.072401247584976</v>
+        <v>0.9954353589201063</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.065757909885154</v>
+        <v>0.9712557205529033</v>
       </c>
       <c r="D16">
-        <v>1.05849079970029</v>
+        <v>0.9939825363296791</v>
       </c>
       <c r="E16">
-        <v>1.078657670590867</v>
+        <v>0.9898202824023223</v>
       </c>
       <c r="F16">
-        <v>1.083833904740728</v>
+        <v>0.9942303239307723</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043619637421845</v>
+        <v>1.03222997964888</v>
       </c>
       <c r="J16">
-        <v>1.071876560528213</v>
+        <v>1.000577488650474</v>
       </c>
       <c r="K16">
-        <v>1.061850029594882</v>
+        <v>1.008424294575335</v>
       </c>
       <c r="L16">
-        <v>1.081949752391809</v>
+        <v>1.00433857356685</v>
       </c>
       <c r="M16">
-        <v>1.087109193198847</v>
+        <v>1.008667552323356</v>
       </c>
       <c r="N16">
-        <v>1.073398748190123</v>
+        <v>1.001998423452199</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.066516481008357</v>
+        <v>0.9761535280918272</v>
       </c>
       <c r="D17">
-        <v>1.059049718547169</v>
+        <v>0.997586916999129</v>
       </c>
       <c r="E17">
-        <v>1.079404479076762</v>
+        <v>0.9944839975546294</v>
       </c>
       <c r="F17">
-        <v>1.084589480577689</v>
+        <v>0.9989391653027085</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.043809841657059</v>
+        <v>1.033748101575744</v>
       </c>
       <c r="J17">
-        <v>1.072499940015983</v>
+        <v>1.004559972532086</v>
       </c>
       <c r="K17">
-        <v>1.062337150305319</v>
+        <v>1.01163738900491</v>
       </c>
       <c r="L17">
-        <v>1.0826257195702</v>
+        <v>1.008589438489641</v>
       </c>
       <c r="M17">
-        <v>1.087794294372474</v>
+        <v>1.012965820395589</v>
       </c>
       <c r="N17">
-        <v>1.074023012948269</v>
+        <v>1.00598656291772</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.066958450476561</v>
+        <v>0.9789573912889203</v>
       </c>
       <c r="D18">
-        <v>1.059375287777098</v>
+        <v>0.9996515280276451</v>
       </c>
       <c r="E18">
-        <v>1.079839631788895</v>
+        <v>0.9971552371169784</v>
       </c>
       <c r="F18">
-        <v>1.085029747250077</v>
+        <v>1.001636346450115</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.043920423359342</v>
+        <v>1.034615773224294</v>
       </c>
       <c r="J18">
-        <v>1.072863034581827</v>
+        <v>1.00683963049225</v>
       </c>
       <c r="K18">
-        <v>1.062620781933529</v>
+        <v>1.013476279263929</v>
       </c>
       <c r="L18">
-        <v>1.083019504802257</v>
+        <v>1.011023256213789</v>
       </c>
       <c r="M18">
-        <v>1.088193407608206</v>
+        <v>1.015426894076128</v>
       </c>
       <c r="N18">
-        <v>1.074386623150043</v>
+        <v>1.008269458253668</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.067109067880993</v>
+        <v>0.9799047925035044</v>
       </c>
       <c r="D19">
-        <v>1.059486224566999</v>
+        <v>1.00034933192191</v>
       </c>
       <c r="E19">
-        <v>1.079987932308814</v>
+        <v>0.9980580532592707</v>
       </c>
       <c r="F19">
-        <v>1.085179791524175</v>
+        <v>1.002547945940172</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.043958067804043</v>
+        <v>1.034908705869976</v>
       </c>
       <c r="J19">
-        <v>1.072986754180422</v>
+        <v>1.007609865303614</v>
       </c>
       <c r="K19">
-        <v>1.062717409056431</v>
+        <v>1.014097527096487</v>
       </c>
       <c r="L19">
-        <v>1.083153692072998</v>
+        <v>1.011845667718501</v>
       </c>
       <c r="M19">
-        <v>1.088329411647909</v>
+        <v>1.016258534836856</v>
       </c>
       <c r="N19">
-        <v>1.07451051844466</v>
+        <v>1.009040786886812</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.066435144594636</v>
+        <v>0.9756335977305887</v>
       </c>
       <c r="D20">
-        <v>1.058989797339612</v>
+        <v>0.9972041629092838</v>
       </c>
       <c r="E20">
-        <v>1.079324400101642</v>
+        <v>0.9939887708615317</v>
       </c>
       <c r="F20">
-        <v>1.084508460938739</v>
+        <v>0.9984391368455048</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.043789471954599</v>
+        <v>1.033587089766637</v>
       </c>
       <c r="J20">
-        <v>1.072433110414478</v>
+        <v>1.004137228922837</v>
       </c>
       <c r="K20">
-        <v>1.062284938450606</v>
+        <v>1.011296352539747</v>
       </c>
       <c r="L20">
-        <v>1.08255324604179</v>
+        <v>1.008138150502989</v>
       </c>
       <c r="M20">
-        <v>1.087720840823524</v>
+        <v>1.01250948778805</v>
       </c>
       <c r="N20">
-        <v>1.073956088441063</v>
+        <v>1.005563218964057</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.064238314889071</v>
+        <v>0.9610979327885202</v>
       </c>
       <c r="D21">
-        <v>1.057370670824057</v>
+        <v>0.9865164276998649</v>
       </c>
       <c r="E21">
-        <v>1.077161875366902</v>
+        <v>0.9801579277809193</v>
       </c>
       <c r="F21">
-        <v>1.082320583739883</v>
+        <v>0.9844751352990904</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043237089453795</v>
+        <v>1.029072634143614</v>
       </c>
       <c r="J21">
-        <v>1.070627096468403</v>
+        <v>0.9923172438626096</v>
       </c>
       <c r="K21">
-        <v>1.060873050134584</v>
+        <v>1.001757833788931</v>
       </c>
       <c r="L21">
-        <v>1.080595272189468</v>
+        <v>0.9955252240172137</v>
       </c>
       <c r="M21">
-        <v>1.085736455491842</v>
+        <v>0.9997567235881015</v>
       </c>
       <c r="N21">
-        <v>1.072147509748032</v>
+        <v>0.993726448169273</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.062852478980626</v>
+        <v>0.9513926097441514</v>
       </c>
       <c r="D22">
-        <v>1.056348594056532</v>
+        <v>0.9793956216229469</v>
       </c>
       <c r="E22">
-        <v>1.075798016211461</v>
+        <v>0.9709387104734736</v>
       </c>
       <c r="F22">
-        <v>1.080940783945457</v>
+        <v>0.9751681582725465</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.042886482382643</v>
+        <v>1.026046676574889</v>
       </c>
       <c r="J22">
-        <v>1.069486831397473</v>
+        <v>0.9844250751856679</v>
       </c>
       <c r="K22">
-        <v>1.059980747337196</v>
+        <v>0.9953866120180265</v>
       </c>
       <c r="L22">
-        <v>1.079359609700511</v>
+        <v>0.9871087293792264</v>
       </c>
       <c r="M22">
-        <v>1.084484188208067</v>
+        <v>0.9912481280561153</v>
       </c>
       <c r="N22">
-        <v>1.071005625369912</v>
+        <v>0.985823071707566</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.063587581196538</v>
+        <v>0.9565961796694767</v>
       </c>
       <c r="D23">
-        <v>1.056890807506156</v>
+        <v>0.9832118570912899</v>
       </c>
       <c r="E23">
-        <v>1.076521428999102</v>
+        <v>0.9758800870194611</v>
       </c>
       <c r="F23">
-        <v>1.081672647294332</v>
+        <v>0.9801564743601484</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.043072661193883</v>
+        <v>1.027670056814971</v>
       </c>
       <c r="J23">
-        <v>1.07009176472871</v>
+        <v>0.9886564159441452</v>
       </c>
       <c r="K23">
-        <v>1.060454214598125</v>
+        <v>0.9988026748500597</v>
       </c>
       <c r="L23">
-        <v>1.080015101614563</v>
+        <v>0.9916207060654989</v>
       </c>
       <c r="M23">
-        <v>1.085148482604204</v>
+        <v>0.9958093600343845</v>
       </c>
       <c r="N23">
-        <v>1.071611417775866</v>
+        <v>0.9900604214552619</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.066471898539293</v>
+        <v>0.9758686945809711</v>
       </c>
       <c r="D24">
-        <v>1.059016874509191</v>
+        <v>0.9973772290818027</v>
       </c>
       <c r="E24">
-        <v>1.079360585727449</v>
+        <v>0.9942126931565475</v>
       </c>
       <c r="F24">
-        <v>1.084545071609688</v>
+        <v>0.998665230018296</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.043798677262318</v>
+        <v>1.033659898874038</v>
       </c>
       <c r="J24">
-        <v>1.07246330941678</v>
+        <v>1.004328381514536</v>
       </c>
       <c r="K24">
-        <v>1.062308532277658</v>
+        <v>1.011450560602483</v>
       </c>
       <c r="L24">
-        <v>1.082585995238684</v>
+        <v>1.008342208388126</v>
       </c>
       <c r="M24">
-        <v>1.087754032848587</v>
+        <v>1.012715826329711</v>
       </c>
       <c r="N24">
-        <v>1.073986330329413</v>
+        <v>1.005754643014362</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.069799762247797</v>
+        <v>0.9961808454423194</v>
       </c>
       <c r="D25">
-        <v>1.061466905969302</v>
+        <v>1.012350851674649</v>
       </c>
       <c r="E25">
-        <v>1.082637771723748</v>
+        <v>1.013585901647289</v>
       </c>
       <c r="F25">
-        <v>1.08786086798685</v>
+        <v>1.01822813076652</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.044627032830209</v>
+        <v>1.039919107174038</v>
       </c>
       <c r="J25">
-        <v>1.075195333623935</v>
+        <v>1.020837426523618</v>
       </c>
       <c r="K25">
-        <v>1.064440897630089</v>
+        <v>1.024760415041431</v>
       </c>
       <c r="L25">
-        <v>1.085550030156053</v>
+        <v>1.025976912297394</v>
       </c>
       <c r="M25">
-        <v>1.090758297335426</v>
+        <v>1.030549918236929</v>
       </c>
       <c r="N25">
-        <v>1.076722234324309</v>
+        <v>1.022287132760971</v>
       </c>
     </row>
   </sheetData>
